--- a/04_memo/map11.xlsx
+++ b/04_memo/map11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム制作\Graduation\04_memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68452E-B54E-49B8-B276-6719E0F8863F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291880F-8E34-4695-AE3A-5A003273351C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -712,1522 +712,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="897">
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="gray0625">
-          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF33CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="702">
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -8021,7 +6506,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8242,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -8464,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -8479,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -8737,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -9161,1929 +7646,1929 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="M4:N4 R7:T7 R4:T4 R10:S10 M10:N10 A17:C18 T5 H12:K13 A15:C15 E15:F15 E18:K18 A12:C12 E12:F12 H15:K15 K14 M7:M9">
-    <cfRule type="cellIs" dxfId="896" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="898" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="899" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="900" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="901" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="902" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="903" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="904" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="905" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="906" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="904" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="905" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="693" priority="906" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="907" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="907" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="908" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="909" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="909" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="689" priority="910" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C5 A10:C10 K6:K9 J10:L10 A7:C8 H7:H8 H11:K11 E7:F8 E10:F10 E4:F4 K4 H4">
-    <cfRule type="cellIs" dxfId="883" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="885" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="886" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="881" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="887" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="888" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="889" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="890" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="891" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="892" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="891" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="892" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="893" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="894" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="894" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="895" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="896" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="897" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="896" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="897" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:N12 M18 R12:S12 R18:T18 L11:M11 M13:N15 R14:S15 T17">
-    <cfRule type="cellIs" dxfId="870" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="872" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="873" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="874" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="867" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="875" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="876" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="877" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="878" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="879" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="878" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="668" priority="879" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="880" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="881" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="881" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="665" priority="882" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="883" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="883" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="884" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5 K5">
-    <cfRule type="cellIs" dxfId="857" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="859" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="860" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="861" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="862" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="863" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="864" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="865" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="866" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="865" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="866" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="654" priority="867" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="868" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="868" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="652" priority="869" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="870" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="870" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="650" priority="871" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17 K17">
-    <cfRule type="cellIs" dxfId="844" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="846" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="847" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="848" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="849" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="849" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="850" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="850" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="851" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="852" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="853" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="852" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="853" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="854" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="855" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="856" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="855" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="856" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="857" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="857" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="858" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18 P14:P15">
-    <cfRule type="cellIs" dxfId="831" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="807" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="808" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="808" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="809" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="810" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="811" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="812" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="813" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="814" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="813" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="814" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="815" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="816" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="816" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="626" priority="817" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="818" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="818" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="819" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4 O7:P7 O10:P10">
-    <cfRule type="cellIs" dxfId="818" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="794" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="795" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="796" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="797" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="798" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="799" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="800" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="801" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="800" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="801" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="802" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="803" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="803" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="804" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="805" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="805" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="806" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:W12 U14:W15 U17:W18">
-    <cfRule type="cellIs" dxfId="805" priority="755" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="755" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="756" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="756" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="757" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="758" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="758" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="759" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="760" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="761" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="762" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="761" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="762" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="763" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="764" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="764" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="765" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="766" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="766" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="767" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:W5 U10:W10 U7:W7">
-    <cfRule type="cellIs" dxfId="792" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="742" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="743" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="744" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="745" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="746" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="747" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="747" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="748" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="749" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="748" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="749" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="750" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="751" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="751" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="752" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="753" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="753" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="cellIs" dxfId="779" priority="729" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="729" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="730" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="731" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="732" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="733" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="734" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="735" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="736" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="735" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="736" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="737" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="738" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="738" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="739" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="740" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="740" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="741" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="766" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="716" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="717" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="718" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="719" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="720" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="721" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="722" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="723" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="724" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="722" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="723" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="724" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="725" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="725" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="726" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="727" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="727" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="728" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:P11">
-    <cfRule type="cellIs" dxfId="753" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="703" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="704" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="705" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="706" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="707" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="708" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="709" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="710" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="709" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="710" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="711" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="712" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="712" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="713" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="714" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="714" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="715" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L9">
-    <cfRule type="cellIs" dxfId="740" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="690" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="691" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="692" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="693" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="694" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="695" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="696" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="697" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="696" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="697" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="698" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="699" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="699" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="700" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="701" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="701" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="702" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L15 L17:L18">
-    <cfRule type="cellIs" dxfId="727" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="677" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="678" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="679" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="680" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="681" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="682" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="683" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="684" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="683" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="684" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="685" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="686" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="686" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="687" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="688" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="688" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="689" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 A9:F9">
-    <cfRule type="cellIs" dxfId="714" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="664" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="665" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="666" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="667" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="668" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="668" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="669" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="670" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="671" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="670" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="671" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="672" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="673" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="673" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="674" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="675" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="675" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="676" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6 J7:J8">
-    <cfRule type="cellIs" dxfId="701" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="651" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="652" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="653" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="654" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="655" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="656" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="657" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="658" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="659" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="660" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="661" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="662" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="688" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="638" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="639" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="640" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="641" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="642" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="643" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="644" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="645" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="644" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="645" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="646" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="647" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="647" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="648" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="649" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="649" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="650" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:P9">
-    <cfRule type="cellIs" dxfId="675" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="625" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="626" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="626" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="627" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="628" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="629" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="630" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="631" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="632" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="631" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="632" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="633" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="634" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="634" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="635" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="636" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="636" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="637" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13 R13:S13 U13:W13">
-    <cfRule type="cellIs" dxfId="662" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="612" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="613" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="614" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="615" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="616" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="617" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="618" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="619" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="618" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="619" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="620" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="621" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="621" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="622" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="623" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="623" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="624" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:F5 H5">
-    <cfRule type="cellIs" dxfId="649" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="586" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="587" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="588" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="589" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="590" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="591" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="592" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="593" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="592" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="593" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="594" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="595" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="595" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="596" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="597" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="598" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="597" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="598" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:P5 R5:S5">
-    <cfRule type="cellIs" dxfId="636" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="573" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="574" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="575" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="576" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="577" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="578" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="579" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="580" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="579" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="580" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="581" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="582" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="582" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="431" priority="583" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="584" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="584" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="429" priority="585" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q5">
-    <cfRule type="cellIs" dxfId="623" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="560" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="561" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="562" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="563" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="564" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="565" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="566" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="567" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="615" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="566" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="421" priority="567" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="420" priority="568" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="569" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="569" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="570" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="571" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="571" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="572" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 R17:S17">
-    <cfRule type="cellIs" dxfId="597" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="534" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="535" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="536" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="537" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="538" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="539" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="540" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="541" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="540" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="541" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="542" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="543" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="543" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="544" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="545" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="545" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="546" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:I17">
-    <cfRule type="cellIs" dxfId="584" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="521" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="522" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="523" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="524" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="525" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="526" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="527" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="528" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="527" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="395" priority="528" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="529" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="530" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="530" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="531" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="532" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="533" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="532" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="533" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="545" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="482" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="483" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="484" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="485" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="486" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="487" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="488" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="489" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="488" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="489" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="381" priority="490" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="491" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="491" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="492" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="493" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="493" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="494" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:S11 U11:W11">
-    <cfRule type="cellIs" dxfId="480" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="417" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="418" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="419" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="420" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="421" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="475" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="422" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="423" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="424" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="423" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="424" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="425" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="426" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="426" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="428" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="428" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q11">
-    <cfRule type="cellIs" dxfId="467" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="404" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="405" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="406" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="407" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="408" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="409" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="410" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="411" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="410" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="411" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="412" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="413" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="413" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="414" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="415" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="415" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="416" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T15">
-    <cfRule type="cellIs" dxfId="454" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="391" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="392" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="393" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="394" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="395" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="396" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="397" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="398" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="397" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="398" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="399" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="400" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="400" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="401" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="402" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="402" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="403" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="cellIs" dxfId="428" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="365" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="366" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="367" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="368" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="369" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="370" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="371" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="372" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="371" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="372" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="373" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="374" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="374" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="376" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="376" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D17:D18">
-    <cfRule type="cellIs" dxfId="376" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="326" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="327" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="328" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="329" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="330" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="331" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="332" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="333" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="332" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="333" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="334" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="335" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="335" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="336" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="337" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="337" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="338" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G12">
-    <cfRule type="cellIs" dxfId="363" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="313" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="314" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="315" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="316" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="317" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="318" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="320" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="321" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="322" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="322" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="324" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="324" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="325" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11:F11">
-    <cfRule type="cellIs" dxfId="350" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="300" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="303" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="304" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="305" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="307" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="307" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="308" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="309" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="309" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="310" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="311" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="311" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="312" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D12">
-    <cfRule type="cellIs" dxfId="337" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="293" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="294" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="296" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="298" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="311" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="262" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="263" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="267" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="268" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="270" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="270" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="272" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="273" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:W16">
-    <cfRule type="cellIs" dxfId="298" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="249" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="250" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="251" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="252" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="253" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="255" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="255" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="257" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="259" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="259" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="260" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:F14 H14:J14">
-    <cfRule type="cellIs" dxfId="285" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="235" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="236" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="237" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="238" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="240" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="241" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="242" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="241" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="242" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="243" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="244" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="245" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="272" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="223" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="224" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="225" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="226" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="229" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="229" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="230" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="231" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="231" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="232" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="233" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P8 R8:W8">
-    <cfRule type="cellIs" dxfId="259" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="210" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="211" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="212" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="213" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="214" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="215" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="216" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="218" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="221" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O15 O17:O18">
-    <cfRule type="cellIs" dxfId="246" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="197" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="198" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="199" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="200" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="201" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="202" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="203" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="203" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="204" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="205" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="205" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="206" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="207" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="207" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="208" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:K16">
-    <cfRule type="cellIs" dxfId="220" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="184" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="185" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="186" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="189" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="190" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="189" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="192" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="193" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="195" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I10">
-    <cfRule type="cellIs" dxfId="207" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="177" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="179" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="181" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="cellIs" dxfId="194" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="158" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="159" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="160" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="165" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="166" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="166" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="168" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:P12">
-    <cfRule type="cellIs" dxfId="181" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="145" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="151" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="151" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="152" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="153" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="153" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="154" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="155" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:Q18">
-    <cfRule type="cellIs" dxfId="168" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="133" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="134" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="137" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="138" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="140" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:W6">
-    <cfRule type="cellIs" dxfId="155" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="119" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="120" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="125" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="126" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="127" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="128" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="142" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="108" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="111" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="114" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="116" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:G13">
-    <cfRule type="cellIs" dxfId="129" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="94" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="95" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="99" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="100" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="101" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="103" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_memo/map11.xlsx
+++ b/04_memo/map11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730AD90-512B-4509-A183-8978AA79F1CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80684FCA-8E97-4DBB-A66D-62F8396C63E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>11</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="U5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X11" s="1"/>
     </row>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="1"/>
     </row>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>11</v>
       </c>
       <c r="U17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17" s="1">
         <v>0</v>
